--- a/TPL_SmokeSuite (7).xlsx
+++ b/TPL_SmokeSuite (7).xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20343"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ESRD-Automation\Source Code\Discovery.UI.Automation2\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D517DF-D850-4C30-9C41-A02C62506186}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BF28E366-BDC4-48FF-84C6-CE994643D2A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="19380" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -18,11 +13,12 @@
     <sheet name="Data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:H13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="84">
   <si>
     <t>LoginTest</t>
   </si>
@@ -271,6 +267,9 @@
   </si>
   <si>
     <t>Lp@%&amp;1123</t>
+  </si>
+  <si>
+    <t>APPlE</t>
   </si>
 </sst>
 </file>
@@ -382,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -427,12 +426,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -479,6 +489,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -818,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,6 +911,11 @@
       </c>
       <c r="B9" s="3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3964,7 +3980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
